--- a/va_facility_data_2025-02-20/North May VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20May%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North May VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20May%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra34238d39c7e4ca98981092283242305"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Re328b7a84ce4401f9f3dbc0b905d9e78"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra3d33b9cd33b44a8930af42a57c66928"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R21b3c7b479a449379b2d418a3a55568c"/>
   </x:sheets>
 </x:workbook>
 </file>
